--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\padam_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6489" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6489" uniqueCount="1302">
   <si>
     <t>PS</t>
   </si>
@@ -3209,9 +3209,6 @@
     <t>NSE</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>NRE</t>
   </si>
   <si>
@@ -3584,9 +3581,6 @@
     <t>deqvaqyAnaiqriti# deva - yAnai$H</t>
   </si>
   <si>
-    <t>N(gm)</t>
-  </si>
-  <si>
     <t>RuqtuBiqrityRuqtu - BiqH</t>
   </si>
   <si>
@@ -3930,13 +3924,22 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>n(gm)</t>
+  </si>
+  <si>
+    <t>s(gg)</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4025,6 +4028,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4067,7 +4084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4206,6 +4223,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4490,10 +4513,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1416" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1813" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Z1422" sqref="Z1422"/>
+      <selection pane="bottomLeft" activeCell="S1995" sqref="S1995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4982,7 +5005,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>16</v>
@@ -5015,19 +5038,19 @@
         <v>11</v>
       </c>
       <c r="S1" s="45" t="s">
+        <v>1098</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>1097</v>
+      </c>
+      <c r="U1" s="45" t="s">
         <v>1099</v>
       </c>
-      <c r="T1" s="45" t="s">
-        <v>1098</v>
-      </c>
-      <c r="U1" s="45" t="s">
+      <c r="V1" s="45" t="s">
         <v>1100</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="W1" s="45" t="s">
         <v>1101</v>
-      </c>
-      <c r="W1" s="45" t="s">
-        <v>1102</v>
       </c>
       <c r="X1" s="38" t="s">
         <v>12</v>
@@ -5076,7 +5099,7 @@
       <c r="W2" s="16"/>
       <c r="X2" s="46"/>
       <c r="Y2" s="46" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5122,7 +5145,7 @@
       <c r="W3" s="16"/>
       <c r="X3" s="46"/>
       <c r="Y3" s="46" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5655,7 +5678,7 @@
       <c r="W15" s="16"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="46" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5789,7 +5812,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="46"/>
       <c r="Y18" s="46" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5923,7 +5946,7 @@
       <c r="W21" s="16"/>
       <c r="X21" s="46"/>
       <c r="Y21" s="46" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6919,7 +6942,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
       <c r="D45" s="41" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6951,7 +6974,7 @@
       <c r="Q45" s="16"/>
       <c r="R45" s="16"/>
       <c r="S45" s="16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="U45" s="16"/>
       <c r="V45" s="16"/>
@@ -10386,7 +10409,7 @@
         <v>16</v>
       </c>
       <c r="N135" s="23" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="O135" s="26"/>
       <c r="P135" s="27"/>
@@ -10422,7 +10445,7 @@
         <v>17</v>
       </c>
       <c r="N136" s="23" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="O136" s="26"/>
       <c r="P136" s="27"/>
@@ -17829,7 +17852,7 @@
         <v>108</v>
       </c>
       <c r="N341" s="23" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="O341" s="27"/>
       <c r="P341" s="27" t="s">
@@ -20156,7 +20179,7 @@
       <c r="W405" s="8"/>
       <c r="X405" s="48"/>
       <c r="Y405" s="46" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="406" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -21547,7 +21570,7 @@
         <v>103</v>
       </c>
       <c r="N444" s="23" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="O444" s="27"/>
       <c r="P444" s="27"/>
@@ -22935,7 +22958,7 @@
     </row>
     <row r="483" spans="4:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D483" s="40" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I483" s="33" t="s">
         <v>708</v>
@@ -22963,10 +22986,10 @@
       <c r="Q483" s="8"/>
       <c r="R483" s="8"/>
       <c r="S483" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="T483" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="U483" s="8"/>
       <c r="V483" s="8"/>
@@ -30305,7 +30328,7 @@
       <c r="V687" s="8"/>
       <c r="W687" s="8"/>
       <c r="Y687" s="46" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="688" spans="9:25" x14ac:dyDescent="0.25">
@@ -30412,7 +30435,7 @@
       <c r="V690" s="8"/>
       <c r="W690" s="8"/>
       <c r="Y690" s="46" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="691" spans="9:25" x14ac:dyDescent="0.25">
@@ -30519,7 +30542,7 @@
       <c r="V693" s="8"/>
       <c r="W693" s="8"/>
       <c r="Y693" s="46" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="694" spans="9:25" x14ac:dyDescent="0.25">
@@ -30626,7 +30649,7 @@
       <c r="V696" s="8"/>
       <c r="W696" s="8"/>
       <c r="Y696" s="46" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="697" spans="9:25" x14ac:dyDescent="0.25">
@@ -30838,7 +30861,7 @@
       <c r="V702" s="8"/>
       <c r="W702" s="8"/>
       <c r="Y702" s="46" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="703" spans="9:25" x14ac:dyDescent="0.25">
@@ -31260,7 +31283,7 @@
       <c r="V714" s="8"/>
       <c r="W714" s="8"/>
       <c r="Y714" s="46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="715" spans="9:25" x14ac:dyDescent="0.25">
@@ -31577,7 +31600,7 @@
       <c r="V723" s="8"/>
       <c r="W723" s="8"/>
       <c r="Y723" s="46" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="724" spans="9:25" x14ac:dyDescent="0.25">
@@ -31683,7 +31706,7 @@
       <c r="V726" s="8"/>
       <c r="W726" s="8"/>
       <c r="Y726" s="46" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="727" spans="9:25" x14ac:dyDescent="0.25">
@@ -31790,7 +31813,7 @@
       <c r="V729" s="8"/>
       <c r="W729" s="8"/>
       <c r="Y729" s="46" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="730" spans="9:25" x14ac:dyDescent="0.25">
@@ -31897,7 +31920,7 @@
       <c r="V732" s="8"/>
       <c r="W732" s="8"/>
       <c r="Y732" s="46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="733" spans="9:25" x14ac:dyDescent="0.25">
@@ -32109,7 +32132,7 @@
       <c r="V738" s="8"/>
       <c r="W738" s="8"/>
       <c r="Y738" s="46" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="739" spans="9:25" x14ac:dyDescent="0.25">
@@ -32636,7 +32659,7 @@
       <c r="V753" s="8"/>
       <c r="W753" s="8"/>
       <c r="Y753" s="46" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="754" spans="9:25" x14ac:dyDescent="0.25">
@@ -32743,7 +32766,7 @@
       <c r="V756" s="8"/>
       <c r="W756" s="8"/>
       <c r="Y756" s="46" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="757" spans="9:25" x14ac:dyDescent="0.25">
@@ -32941,7 +32964,7 @@
         <v>4</v>
       </c>
       <c r="N762" s="17" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O762" s="27"/>
       <c r="P762" s="27"/>
@@ -33690,7 +33713,7 @@
       <c r="V783" s="8"/>
       <c r="W783" s="8"/>
       <c r="Y783" s="46" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="784" spans="9:25" x14ac:dyDescent="0.25">
@@ -33799,7 +33822,7 @@
       <c r="V786" s="8"/>
       <c r="W786" s="8"/>
       <c r="Y786" s="46" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="787" spans="9:25" x14ac:dyDescent="0.25">
@@ -33906,7 +33929,7 @@
       <c r="V789" s="8"/>
       <c r="W789" s="8"/>
       <c r="Y789" s="46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="790" spans="9:25" x14ac:dyDescent="0.25">
@@ -34118,7 +34141,7 @@
       <c r="V795" s="8"/>
       <c r="W795" s="8"/>
       <c r="Y795" s="46" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="796" spans="9:25" x14ac:dyDescent="0.25">
@@ -34225,7 +34248,7 @@
       <c r="V798" s="8"/>
       <c r="W798" s="8"/>
       <c r="Y798" s="46" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="799" spans="9:25" x14ac:dyDescent="0.25">
@@ -34318,7 +34341,7 @@
         <v>43</v>
       </c>
       <c r="N801" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O801" s="26" t="s">
         <v>0</v>
@@ -34332,7 +34355,7 @@
       <c r="V801" s="8"/>
       <c r="W801" s="8"/>
       <c r="Y801" s="46" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="802" spans="9:25" x14ac:dyDescent="0.25">
@@ -34439,7 +34462,7 @@
       <c r="V804" s="8"/>
       <c r="W804" s="8"/>
       <c r="Y804" s="50" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="805" spans="9:25" x14ac:dyDescent="0.25">
@@ -34966,7 +34989,7 @@
       <c r="V819" s="8"/>
       <c r="W819" s="8"/>
       <c r="Y819" s="46" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="820" spans="9:25" x14ac:dyDescent="0.25">
@@ -35073,7 +35096,7 @@
       <c r="V822" s="8"/>
       <c r="W822" s="8"/>
       <c r="Y822" s="46" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="823" spans="9:25" x14ac:dyDescent="0.25">
@@ -35600,7 +35623,7 @@
       <c r="V837" s="8"/>
       <c r="W837" s="8"/>
       <c r="Y837" s="46" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="838" spans="9:25" x14ac:dyDescent="0.25">
@@ -35707,7 +35730,7 @@
       <c r="V840" s="8"/>
       <c r="W840" s="8"/>
       <c r="Y840" s="46" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="841" spans="9:25" x14ac:dyDescent="0.25">
@@ -37319,7 +37342,7 @@
       <c r="V886" s="8"/>
       <c r="W886" s="8"/>
       <c r="Y886" s="46" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="887" spans="9:25" x14ac:dyDescent="0.25">
@@ -37391,7 +37414,7 @@
       <c r="V888" s="8"/>
       <c r="W888" s="8"/>
       <c r="Y888" s="46" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="889" spans="9:25" x14ac:dyDescent="0.25">
@@ -37519,7 +37542,7 @@
         <v>68</v>
       </c>
       <c r="N892" s="23" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="O892" s="26"/>
       <c r="P892" s="27" t="s">
@@ -37778,7 +37801,7 @@
       <c r="V899" s="8"/>
       <c r="W899" s="8"/>
       <c r="Y899" s="46" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="900" spans="9:25" x14ac:dyDescent="0.25">
@@ -37885,7 +37908,7 @@
       <c r="V902" s="8"/>
       <c r="W902" s="8"/>
       <c r="Y902" s="46" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="903" spans="9:25" x14ac:dyDescent="0.25">
@@ -37992,7 +38015,7 @@
       <c r="V905" s="8"/>
       <c r="W905" s="8"/>
       <c r="Y905" s="46" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="906" spans="9:25" x14ac:dyDescent="0.25">
@@ -38204,7 +38227,7 @@
       <c r="V911" s="8"/>
       <c r="W911" s="8"/>
       <c r="Y911" s="46" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="912" spans="9:25" x14ac:dyDescent="0.25">
@@ -38311,7 +38334,7 @@
       <c r="V914" s="8"/>
       <c r="W914" s="8"/>
       <c r="Y914" s="46" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="915" spans="9:25" x14ac:dyDescent="0.25">
@@ -38418,7 +38441,7 @@
       <c r="V917" s="8"/>
       <c r="W917" s="8"/>
       <c r="Y917" s="46" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="918" spans="9:25" x14ac:dyDescent="0.25">
@@ -38525,7 +38548,7 @@
       <c r="V920" s="8"/>
       <c r="W920" s="8"/>
       <c r="Y920" s="46" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="921" spans="9:25" x14ac:dyDescent="0.25">
@@ -38632,7 +38655,7 @@
       <c r="V923" s="8"/>
       <c r="W923" s="8"/>
       <c r="Y923" s="46" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="924" spans="9:25" x14ac:dyDescent="0.25">
@@ -38844,7 +38867,7 @@
       <c r="V929" s="8"/>
       <c r="W929" s="8"/>
       <c r="Y929" s="46" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="930" spans="9:25" x14ac:dyDescent="0.25">
@@ -39788,7 +39811,7 @@
       <c r="V956" s="8"/>
       <c r="W956" s="8"/>
       <c r="Y956" s="46" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="957" spans="5:25" x14ac:dyDescent="0.25">
@@ -39863,10 +39886,10 @@
     </row>
     <row r="959" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E959" s="42" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G959" s="42" t="s">
         <v>1079</v>
-      </c>
-      <c r="G959" s="42" t="s">
-        <v>1080</v>
       </c>
       <c r="I959" s="33" t="s">
         <v>717</v>
@@ -39903,7 +39926,7 @@
       <c r="V959" s="8"/>
       <c r="W959" s="8"/>
       <c r="Y959" s="46" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="960" spans="5:25" x14ac:dyDescent="0.25">
@@ -40010,7 +40033,7 @@
       <c r="V962" s="8"/>
       <c r="W962" s="8"/>
       <c r="Y962" s="46" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="963" spans="9:25" x14ac:dyDescent="0.25">
@@ -40698,7 +40721,7 @@
         <v>90</v>
       </c>
       <c r="N982" s="23" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="O982" s="27"/>
       <c r="P982" s="29" t="s">
@@ -41377,7 +41400,7 @@
       <c r="V1001" s="8"/>
       <c r="W1001" s="8"/>
       <c r="Y1001" s="46" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1002" spans="9:25" x14ac:dyDescent="0.25">
@@ -41484,7 +41507,7 @@
       <c r="V1004" s="8"/>
       <c r="W1004" s="8"/>
       <c r="Y1004" s="46" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1005" spans="9:25" x14ac:dyDescent="0.25">
@@ -41591,7 +41614,7 @@
       <c r="V1007" s="8"/>
       <c r="W1007" s="8"/>
       <c r="Y1007" s="46" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1008" spans="9:25" x14ac:dyDescent="0.25">
@@ -41698,7 +41721,7 @@
       <c r="V1010" s="8"/>
       <c r="W1010" s="8"/>
       <c r="Y1010" s="46" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1011" spans="9:25" x14ac:dyDescent="0.25">
@@ -41805,7 +41828,7 @@
       <c r="V1013" s="8"/>
       <c r="W1013" s="8"/>
       <c r="Y1013" s="46" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1014" spans="9:25" x14ac:dyDescent="0.25">
@@ -41912,7 +41935,7 @@
       <c r="V1016" s="8"/>
       <c r="W1016" s="8"/>
       <c r="Y1016" s="46" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1017" spans="9:25" x14ac:dyDescent="0.25">
@@ -42019,7 +42042,7 @@
       <c r="V1019" s="8"/>
       <c r="W1019" s="8"/>
       <c r="Y1019" s="46" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1020" spans="9:25" x14ac:dyDescent="0.25">
@@ -42126,7 +42149,7 @@
       <c r="V1022" s="8"/>
       <c r="W1022" s="8"/>
       <c r="Y1022" s="46" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1023" spans="9:25" x14ac:dyDescent="0.25">
@@ -42233,7 +42256,7 @@
       <c r="V1025" s="8"/>
       <c r="W1025" s="8"/>
       <c r="Y1025" s="46" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1026" spans="9:25" x14ac:dyDescent="0.25">
@@ -42340,7 +42363,7 @@
       <c r="V1028" s="8"/>
       <c r="W1028" s="8"/>
       <c r="Y1028" s="46" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1029" spans="9:25" x14ac:dyDescent="0.25">
@@ -42447,7 +42470,7 @@
       <c r="V1031" s="8"/>
       <c r="W1031" s="8"/>
       <c r="Y1031" s="46" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1032" spans="9:25" x14ac:dyDescent="0.25">
@@ -43078,7 +43101,7 @@
       <c r="V1049" s="8"/>
       <c r="W1049" s="8"/>
       <c r="Y1049" s="46" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1050" spans="9:25" x14ac:dyDescent="0.25">
@@ -43185,7 +43208,7 @@
       <c r="V1052" s="8"/>
       <c r="W1052" s="8"/>
       <c r="Y1052" s="46" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1053" spans="9:25" x14ac:dyDescent="0.25">
@@ -43397,7 +43420,7 @@
       <c r="V1058" s="8"/>
       <c r="W1058" s="8"/>
       <c r="Y1058" s="46" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1059" spans="9:25" x14ac:dyDescent="0.25">
@@ -43609,7 +43632,7 @@
       <c r="V1064" s="8"/>
       <c r="W1064" s="8"/>
       <c r="Y1064" s="46" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1065" spans="9:25" x14ac:dyDescent="0.25">
@@ -43716,7 +43739,7 @@
       <c r="V1067" s="8"/>
       <c r="W1067" s="8"/>
       <c r="Y1067" s="46" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1068" spans="9:25" x14ac:dyDescent="0.25">
@@ -43893,7 +43916,7 @@
       <c r="V1072" s="8"/>
       <c r="W1072" s="8"/>
       <c r="Y1072" s="46" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1073" spans="5:25" x14ac:dyDescent="0.25">
@@ -43933,10 +43956,10 @@
     </row>
     <row r="1074" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1074" s="42" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G1074" s="42" t="s">
         <v>1079</v>
-      </c>
-      <c r="G1074" s="42" t="s">
-        <v>1080</v>
       </c>
       <c r="I1074" s="33" t="s">
         <v>719</v>
@@ -43973,7 +43996,7 @@
       <c r="V1074" s="8"/>
       <c r="W1074" s="8"/>
       <c r="Y1074" s="46" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1075" spans="5:25" x14ac:dyDescent="0.25">
@@ -44255,7 +44278,7 @@
       <c r="V1082" s="8"/>
       <c r="W1082" s="8"/>
       <c r="Y1082" s="46" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1083" spans="5:25" x14ac:dyDescent="0.25">
@@ -44313,7 +44336,7 @@
         <v>102</v>
       </c>
       <c r="N1084" s="31" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O1084" s="26"/>
       <c r="P1084" s="29"/>
@@ -44632,7 +44655,7 @@
         <v>111</v>
       </c>
       <c r="N1093" s="23" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="O1093" s="26"/>
       <c r="P1093" s="29" t="s">
@@ -44786,7 +44809,7 @@
       <c r="V1097" s="8"/>
       <c r="W1097" s="8"/>
       <c r="Y1097" s="46" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1098" spans="9:25" x14ac:dyDescent="0.25">
@@ -44895,7 +44918,7 @@
       <c r="V1100" s="8"/>
       <c r="W1100" s="8"/>
       <c r="Y1100" s="46" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1101" spans="9:25" x14ac:dyDescent="0.25">
@@ -45072,7 +45095,7 @@
       <c r="V1105" s="8"/>
       <c r="W1105" s="8"/>
       <c r="Y1105" s="46" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1106" spans="9:25" x14ac:dyDescent="0.25">
@@ -45211,7 +45234,7 @@
       <c r="S1109" s="8"/>
       <c r="T1109" s="8"/>
       <c r="U1109" s="8" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V1109" s="8"/>
       <c r="W1109" s="8"/>
@@ -45467,7 +45490,7 @@
       <c r="V1116" s="8"/>
       <c r="W1116" s="8"/>
       <c r="Y1116" s="46" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1117" spans="9:25" x14ac:dyDescent="0.25">
@@ -45853,15 +45876,15 @@
       <c r="S1127" s="8"/>
       <c r="T1127" s="8"/>
       <c r="U1127" s="8" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V1127" s="8"/>
       <c r="W1127" s="8"/>
       <c r="X1127" s="48" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Y1127" s="46" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1128" spans="9:25" x14ac:dyDescent="0.25">
@@ -45933,7 +45956,7 @@
       <c r="V1129" s="8"/>
       <c r="W1129" s="8"/>
       <c r="Y1129" s="46" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1130" spans="9:25" x14ac:dyDescent="0.25">
@@ -46033,7 +46056,7 @@
       <c r="Q1132" s="8"/>
       <c r="R1132" s="8"/>
       <c r="S1132" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="T1132" s="8"/>
       <c r="V1132" s="8"/>
@@ -46108,7 +46131,7 @@
       <c r="S1134" s="8"/>
       <c r="T1134" s="8"/>
       <c r="U1134" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1134" s="8"/>
       <c r="W1134" s="8"/>
@@ -46257,7 +46280,7 @@
       <c r="V1138" s="8"/>
       <c r="W1138" s="8"/>
       <c r="Y1138" s="46" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1139" spans="9:25" x14ac:dyDescent="0.25">
@@ -46294,7 +46317,7 @@
       <c r="V1139" s="8"/>
       <c r="W1139" s="8"/>
       <c r="Y1139" s="46" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1140" spans="9:25" x14ac:dyDescent="0.25">
@@ -46542,7 +46565,7 @@
       <c r="V1146" s="8"/>
       <c r="W1146" s="8"/>
       <c r="Y1146" s="46" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1147" spans="9:25" x14ac:dyDescent="0.25">
@@ -46574,7 +46597,7 @@
       <c r="S1147" s="8"/>
       <c r="T1147" s="8"/>
       <c r="U1147" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1147" s="8"/>
       <c r="W1147" s="8"/>
@@ -46791,7 +46814,7 @@
       <c r="V1153" s="8"/>
       <c r="W1153" s="8"/>
       <c r="Y1153" s="46" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1154" spans="9:25" x14ac:dyDescent="0.25">
@@ -46830,7 +46853,7 @@
       <c r="V1154" s="8"/>
       <c r="W1154" s="8"/>
       <c r="Y1154" s="46" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1155" spans="9:25" x14ac:dyDescent="0.25">
@@ -47067,14 +47090,12 @@
       <c r="P1161" s="29"/>
       <c r="Q1161" s="8"/>
       <c r="R1161" s="8"/>
-      <c r="S1161" s="8" t="s">
-        <v>1217</v>
-      </c>
+      <c r="S1161" s="8"/>
       <c r="T1161" s="8"/>
-      <c r="U1161" s="8" t="s">
-        <v>1185</v>
-      </c>
-      <c r="V1161" s="8"/>
+      <c r="U1161" s="8"/>
+      <c r="V1161" s="8" t="s">
+        <v>1299</v>
+      </c>
       <c r="W1161" s="8"/>
       <c r="Y1161" s="5" t="s">
         <v>739</v>
@@ -47114,7 +47135,7 @@
       <c r="V1162" s="8"/>
       <c r="W1162" s="8"/>
       <c r="Y1162" s="46" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1163" spans="9:25" x14ac:dyDescent="0.25">
@@ -47258,7 +47279,7 @@
       <c r="V1166" s="8"/>
       <c r="W1166" s="8"/>
       <c r="Y1166" s="46" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1167" spans="9:25" x14ac:dyDescent="0.25">
@@ -47400,7 +47421,7 @@
       <c r="V1170" s="8"/>
       <c r="W1170" s="8"/>
       <c r="Y1170" s="46" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1171" spans="9:25" x14ac:dyDescent="0.25">
@@ -47423,7 +47444,7 @@
         <v>78</v>
       </c>
       <c r="N1171" s="23" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1171" s="27"/>
       <c r="P1171" s="29" t="s">
@@ -47679,7 +47700,7 @@
       <c r="S1178" s="8"/>
       <c r="T1178" s="8"/>
       <c r="U1178" s="8" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="V1178" s="8"/>
       <c r="W1178" s="8"/>
@@ -47828,7 +47849,7 @@
       <c r="V1182" s="8"/>
       <c r="W1182" s="8"/>
       <c r="Y1182" s="46" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1183" spans="9:25" x14ac:dyDescent="0.25">
@@ -48237,7 +48258,7 @@
         <v>101</v>
       </c>
       <c r="N1194" s="23" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O1194" s="27" t="s">
         <v>0</v>
@@ -48253,7 +48274,7 @@
       <c r="V1194" s="8"/>
       <c r="W1194" s="8"/>
       <c r="Y1194" s="46" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1195" spans="9:25" x14ac:dyDescent="0.25">
@@ -48504,7 +48525,7 @@
       <c r="V1201" s="8"/>
       <c r="W1201" s="8"/>
       <c r="Y1201" s="46" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1202" spans="9:25" x14ac:dyDescent="0.25">
@@ -48541,7 +48562,7 @@
       <c r="V1202" s="8"/>
       <c r="W1202" s="8"/>
       <c r="Y1202" s="46" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1203" spans="9:25" x14ac:dyDescent="0.25">
@@ -48567,7 +48588,7 @@
         <v>793</v>
       </c>
       <c r="O1203" s="27" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="P1203" s="29"/>
       <c r="Q1203" s="8"/>
@@ -48581,7 +48602,7 @@
         <v>863</v>
       </c>
       <c r="Y1203" s="46" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1204" spans="9:25" x14ac:dyDescent="0.25">
@@ -48690,7 +48711,7 @@
       <c r="V1206" s="8"/>
       <c r="W1206" s="8"/>
       <c r="X1206" s="48" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Y1206" s="46" t="s">
         <v>937</v>
@@ -48758,7 +48779,7 @@
       <c r="Q1208" s="8"/>
       <c r="R1208" s="8"/>
       <c r="S1208" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="T1208" s="8"/>
       <c r="V1208" s="8"/>
@@ -48829,7 +48850,7 @@
       <c r="Q1210" s="8"/>
       <c r="R1210" s="8"/>
       <c r="S1210" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="U1210" s="8" t="s">
         <v>1058</v>
@@ -49051,7 +49072,7 @@
       <c r="V1216" s="8"/>
       <c r="W1216" s="8"/>
       <c r="Y1216" s="46" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1217" spans="9:25" x14ac:dyDescent="0.25">
@@ -49193,7 +49214,7 @@
       <c r="V1220" s="8"/>
       <c r="W1220" s="8"/>
       <c r="Y1220" s="46" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1221" spans="9:25" x14ac:dyDescent="0.25">
@@ -49230,7 +49251,7 @@
       <c r="V1221" s="8"/>
       <c r="W1221" s="8"/>
       <c r="Y1221" s="46" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1222" spans="9:25" x14ac:dyDescent="0.25">
@@ -49267,7 +49288,7 @@
       <c r="V1222" s="8"/>
       <c r="W1222" s="8"/>
       <c r="Y1222" s="46" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1223" spans="9:25" x14ac:dyDescent="0.25">
@@ -49584,7 +49605,7 @@
       <c r="V1231" s="8"/>
       <c r="W1231" s="8"/>
       <c r="Y1231" s="46" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1232" spans="9:25" x14ac:dyDescent="0.25">
@@ -49621,7 +49642,7 @@
       <c r="V1232" s="8"/>
       <c r="W1232" s="8"/>
       <c r="Y1232" s="46" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1233" spans="9:25" x14ac:dyDescent="0.25">
@@ -50292,7 +50313,7 @@
       <c r="V1251" s="8"/>
       <c r="W1251" s="8"/>
       <c r="Y1251" s="46" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1252" spans="9:25" x14ac:dyDescent="0.25">
@@ -50364,7 +50385,7 @@
       <c r="V1253" s="8"/>
       <c r="W1253" s="8"/>
       <c r="Y1253" s="46" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1254" spans="9:25" x14ac:dyDescent="0.25">
@@ -50569,7 +50590,7 @@
       <c r="Q1259" s="8"/>
       <c r="R1259" s="8"/>
       <c r="S1259" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T1259" s="8"/>
       <c r="U1259" s="8"/>
@@ -50720,7 +50741,7 @@
       <c r="V1263" s="8"/>
       <c r="W1263" s="8"/>
       <c r="Y1263" s="46" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1264" spans="9:25" x14ac:dyDescent="0.25">
@@ -50857,7 +50878,7 @@
       <c r="S1267" s="8"/>
       <c r="T1267" s="8"/>
       <c r="U1267" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1267" s="8"/>
       <c r="W1267" s="8"/>
@@ -51004,7 +51025,7 @@
       <c r="V1271" s="8"/>
       <c r="W1271" s="8"/>
       <c r="Y1271" s="46" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1272" spans="9:25" x14ac:dyDescent="0.25">
@@ -51150,7 +51171,7 @@
       <c r="V1275" s="8"/>
       <c r="W1275" s="8"/>
       <c r="Y1275" s="46" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1276" spans="9:25" x14ac:dyDescent="0.25">
@@ -51327,7 +51348,7 @@
       <c r="V1280" s="8"/>
       <c r="W1280" s="8"/>
       <c r="Y1280" s="46" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1281" spans="9:25" x14ac:dyDescent="0.25">
@@ -51506,7 +51527,7 @@
       <c r="V1285" s="8"/>
       <c r="W1285" s="8"/>
       <c r="Y1285" s="46" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1286" spans="9:25" x14ac:dyDescent="0.25">
@@ -51650,7 +51671,7 @@
       <c r="V1289" s="8"/>
       <c r="W1289" s="8"/>
       <c r="Y1289" s="46" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1290" spans="9:25" x14ac:dyDescent="0.25">
@@ -51687,7 +51708,7 @@
       <c r="V1290" s="8"/>
       <c r="W1290" s="8"/>
       <c r="Y1290" s="46" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1291" spans="9:25" x14ac:dyDescent="0.25">
@@ -51829,7 +51850,7 @@
       <c r="V1294" s="8"/>
       <c r="W1294" s="8"/>
       <c r="Y1294" s="46" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1295" spans="9:25" x14ac:dyDescent="0.25">
@@ -51937,7 +51958,7 @@
       <c r="V1297" s="8"/>
       <c r="W1297" s="8"/>
       <c r="Y1297" s="46" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1298" spans="9:25" x14ac:dyDescent="0.25">
@@ -52459,7 +52480,7 @@
       <c r="Q1312" s="8"/>
       <c r="R1312" s="8"/>
       <c r="S1312" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="T1312" s="8"/>
       <c r="U1312" s="8"/>
@@ -52538,7 +52559,7 @@
       <c r="V1314" s="8"/>
       <c r="W1314" s="8"/>
       <c r="Y1314" s="46" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1315" spans="9:25" x14ac:dyDescent="0.25">
@@ -52721,7 +52742,7 @@
       <c r="V1319" s="8"/>
       <c r="W1319" s="8"/>
       <c r="Y1319" s="46" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1320" spans="9:25" x14ac:dyDescent="0.25">
@@ -53024,7 +53045,7 @@
         <v>83</v>
       </c>
       <c r="N1328" s="23" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="O1328" s="26"/>
       <c r="P1328" s="29" t="s">
@@ -53357,7 +53378,7 @@
       <c r="V1337" s="8"/>
       <c r="W1337" s="8"/>
       <c r="Y1337" s="46" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1338" spans="9:25" x14ac:dyDescent="0.25">
@@ -53429,7 +53450,7 @@
       <c r="V1339" s="8"/>
       <c r="W1339" s="8"/>
       <c r="Y1339" s="46" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1340" spans="9:25" x14ac:dyDescent="0.25">
@@ -53775,7 +53796,7 @@
       <c r="Q1349" s="8"/>
       <c r="R1349" s="8"/>
       <c r="S1349" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="T1349" s="8"/>
       <c r="U1349" s="8"/>
@@ -53805,7 +53826,7 @@
         <v>105</v>
       </c>
       <c r="N1350" s="23" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O1350" s="26" t="s">
         <v>0</v>
@@ -53821,7 +53842,7 @@
       <c r="V1350" s="8"/>
       <c r="W1350" s="8"/>
       <c r="Y1350" s="46" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1351" spans="9:25" x14ac:dyDescent="0.25">
@@ -53851,11 +53872,11 @@
       <c r="Q1351" s="8"/>
       <c r="R1351" s="8"/>
       <c r="S1351" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="T1351" s="8"/>
       <c r="V1351" s="8" t="s">
-        <v>1066</v>
+        <v>1300</v>
       </c>
       <c r="W1351" s="8"/>
       <c r="Y1351" s="5" t="s">
@@ -54215,7 +54236,7 @@
       <c r="V1361" s="8"/>
       <c r="W1361" s="8"/>
       <c r="Y1361" s="50" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1362" spans="9:25" x14ac:dyDescent="0.25">
@@ -54462,7 +54483,7 @@
       <c r="V1368" s="8"/>
       <c r="W1368" s="8"/>
       <c r="Y1368" s="46" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1369" spans="9:25" x14ac:dyDescent="0.25">
@@ -54676,7 +54697,7 @@
       <c r="V1374" s="8"/>
       <c r="W1374" s="8"/>
       <c r="Y1374" s="46" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1375" spans="9:25" x14ac:dyDescent="0.25">
@@ -54751,7 +54772,7 @@
     </row>
     <row r="1377" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D1377" s="40" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I1377" s="33" t="s">
         <v>725</v>
@@ -55175,7 +55196,7 @@
       <c r="V1388" s="8"/>
       <c r="W1388" s="8"/>
       <c r="Y1388" s="46" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1389" spans="4:25" x14ac:dyDescent="0.25">
@@ -55319,7 +55340,7 @@
       <c r="V1392" s="8"/>
       <c r="W1392" s="8"/>
       <c r="Y1392" s="46" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1393" spans="9:25" x14ac:dyDescent="0.25">
@@ -55388,12 +55409,12 @@
       <c r="S1394" s="8"/>
       <c r="T1394" s="8"/>
       <c r="U1394" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1394" s="8"/>
       <c r="W1394" s="8"/>
       <c r="Y1394" s="46" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1395" spans="9:25" x14ac:dyDescent="0.25">
@@ -55565,8 +55586,8 @@
       <c r="R1399" s="8"/>
       <c r="S1399" s="8"/>
       <c r="T1399" s="8"/>
-      <c r="U1399" s="8" t="s">
-        <v>1061</v>
+      <c r="U1399" s="52" t="s">
+        <v>1060</v>
       </c>
       <c r="V1399" s="8"/>
       <c r="W1399" s="8"/>
@@ -55608,7 +55629,7 @@
       <c r="V1400" s="8"/>
       <c r="W1400" s="8"/>
       <c r="Y1400" s="46" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1401" spans="9:25" x14ac:dyDescent="0.25">
@@ -55645,7 +55666,7 @@
       <c r="V1401" s="8"/>
       <c r="W1401" s="8"/>
       <c r="Y1401" s="46" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1402" spans="9:25" x14ac:dyDescent="0.25">
@@ -55754,7 +55775,7 @@
       <c r="V1404" s="8"/>
       <c r="W1404" s="8"/>
       <c r="Y1404" s="46" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1405" spans="9:25" x14ac:dyDescent="0.25">
@@ -55791,7 +55812,7 @@
       <c r="V1405" s="8"/>
       <c r="W1405" s="8"/>
       <c r="Y1405" s="46" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1406" spans="9:25" x14ac:dyDescent="0.25">
@@ -56458,7 +56479,7 @@
       <c r="S1424" s="8"/>
       <c r="T1424" s="8"/>
       <c r="U1424" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1424" s="8"/>
       <c r="W1424" s="8"/>
@@ -56500,7 +56521,7 @@
       <c r="V1425" s="8"/>
       <c r="W1425" s="8"/>
       <c r="Y1425" s="46" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1426" spans="5:25" x14ac:dyDescent="0.25">
@@ -56574,7 +56595,7 @@
       <c r="V1427" s="8"/>
       <c r="W1427" s="8"/>
       <c r="Y1427" s="46" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1428" spans="5:25" x14ac:dyDescent="0.25">
@@ -56781,7 +56802,7 @@
       <c r="Q1433" s="8"/>
       <c r="R1433" s="8"/>
       <c r="S1433" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="T1433" s="8"/>
       <c r="V1433" s="8"/>
@@ -56897,13 +56918,13 @@
     </row>
     <row r="1437" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1437" s="43" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F1437" s="43" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G1437" s="43" t="s">
         <v>1087</v>
-      </c>
-      <c r="F1437" s="43" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G1437" s="43" t="s">
-        <v>1088</v>
       </c>
       <c r="I1437" s="33" t="s">
         <v>726</v>
@@ -56961,7 +56982,7 @@
         <v>193</v>
       </c>
       <c r="N1438" s="31" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O1438" s="26" t="s">
         <v>0</v>
@@ -56977,7 +56998,7 @@
       <c r="V1438" s="8"/>
       <c r="W1438" s="8"/>
       <c r="Y1438" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1439" spans="5:25" x14ac:dyDescent="0.25">
@@ -57189,7 +57210,7 @@
       <c r="V1444" s="8"/>
       <c r="W1444" s="8"/>
       <c r="Y1444" s="46" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1445" spans="9:25" x14ac:dyDescent="0.25">
@@ -57246,7 +57267,7 @@
         <v>201</v>
       </c>
       <c r="N1446" s="23" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="O1446" s="26" t="s">
         <v>0</v>
@@ -57262,7 +57283,7 @@
       <c r="V1446" s="8"/>
       <c r="W1446" s="8"/>
       <c r="Y1446" s="46" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1447" spans="9:25" x14ac:dyDescent="0.25">
@@ -57511,7 +57532,7 @@
       <c r="V1453" s="8"/>
       <c r="W1453" s="8"/>
       <c r="Y1453" s="46" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1454" spans="9:25" x14ac:dyDescent="0.25">
@@ -57718,13 +57739,12 @@
       <c r="Q1459" s="8"/>
       <c r="R1459" s="8"/>
       <c r="S1459" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="T1459" s="8"/>
-      <c r="U1459" s="8" t="s">
-        <v>1230</v>
-      </c>
-      <c r="V1459" s="8"/>
+      <c r="V1459" s="8" t="s">
+        <v>1228</v>
+      </c>
       <c r="W1459" s="8"/>
       <c r="Y1459" s="5" t="s">
         <v>739</v>
@@ -57869,7 +57889,7 @@
       <c r="V1463" s="8"/>
       <c r="W1463" s="8"/>
       <c r="Y1463" s="46" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1464" spans="9:25" x14ac:dyDescent="0.25">
@@ -58431,11 +58451,11 @@
       <c r="P1479" s="29"/>
       <c r="Q1479" s="8"/>
       <c r="S1479" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="T1479" s="8"/>
       <c r="U1479" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1479" s="8"/>
       <c r="W1479" s="8"/>
@@ -58505,7 +58525,7 @@
       <c r="Q1481" s="8"/>
       <c r="R1481" s="8"/>
       <c r="S1481" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="T1481" s="8"/>
       <c r="V1481" s="8"/>
@@ -58534,7 +58554,7 @@
         <v>237</v>
       </c>
       <c r="N1482" s="23" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O1482" s="26"/>
       <c r="P1482" s="29" t="s">
@@ -58613,7 +58633,7 @@
       <c r="S1484" s="8"/>
       <c r="T1484" s="8"/>
       <c r="U1484" s="8" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="V1484" s="8"/>
       <c r="W1484" s="8"/>
@@ -58690,7 +58710,7 @@
       <c r="V1486" s="8"/>
       <c r="W1486" s="8"/>
       <c r="Y1486" s="46" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1487" spans="9:25" x14ac:dyDescent="0.25">
@@ -59009,7 +59029,7 @@
       <c r="V1495" s="8"/>
       <c r="W1495" s="8"/>
       <c r="Y1495" s="50" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1496" spans="9:25" x14ac:dyDescent="0.25">
@@ -59116,7 +59136,7 @@
       <c r="V1498" s="8"/>
       <c r="W1498" s="8"/>
       <c r="Y1498" s="50" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1499" spans="9:25" x14ac:dyDescent="0.25">
@@ -59295,7 +59315,7 @@
       <c r="V1503" s="8"/>
       <c r="W1503" s="8"/>
       <c r="Y1503" s="46" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1504" spans="9:25" x14ac:dyDescent="0.25">
@@ -59402,7 +59422,7 @@
       <c r="V1506" s="8"/>
       <c r="W1506" s="8"/>
       <c r="Y1506" s="46" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1507" spans="9:25" x14ac:dyDescent="0.25">
@@ -59495,7 +59515,7 @@
         <v>27</v>
       </c>
       <c r="N1509" s="23" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="O1509" s="27"/>
       <c r="P1509" s="29" t="s">
@@ -60110,7 +60130,7 @@
       <c r="V1526" s="8"/>
       <c r="W1526" s="8"/>
       <c r="Y1526" s="46" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1527" spans="9:25" x14ac:dyDescent="0.25">
@@ -60203,7 +60223,7 @@
         <v>47</v>
       </c>
       <c r="N1529" s="23" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O1529" s="26" t="s">
         <v>0</v>
@@ -60219,7 +60239,7 @@
       <c r="V1529" s="8"/>
       <c r="W1529" s="8"/>
       <c r="Y1529" s="46" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1530" spans="9:25" x14ac:dyDescent="0.25">
@@ -60502,7 +60522,7 @@
       <c r="V1537" s="8"/>
       <c r="W1537" s="8"/>
       <c r="Y1537" s="46" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1538" spans="9:25" x14ac:dyDescent="0.25">
@@ -60714,7 +60734,7 @@
       <c r="V1543" s="8"/>
       <c r="W1543" s="8"/>
       <c r="Y1543" s="46" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1544" spans="9:25" x14ac:dyDescent="0.25">
@@ -61354,7 +61374,7 @@
       <c r="V1561" s="8"/>
       <c r="W1561" s="8"/>
       <c r="Y1561" s="46" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1562" spans="9:25" x14ac:dyDescent="0.25">
@@ -61708,7 +61728,7 @@
       <c r="V1571" s="8"/>
       <c r="W1571" s="8"/>
       <c r="Y1571" s="46" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1572" spans="9:25" x14ac:dyDescent="0.25">
@@ -62055,7 +62075,7 @@
       </c>
       <c r="P1581" s="29"/>
       <c r="Y1581" s="46" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1582" spans="9:25" x14ac:dyDescent="0.25">
@@ -62143,7 +62163,7 @@
       </c>
       <c r="P1584" s="29"/>
       <c r="Y1584" s="46" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1585" spans="4:25" x14ac:dyDescent="0.25">
@@ -62343,7 +62363,7 @@
       </c>
       <c r="P1591" s="29"/>
       <c r="Y1591" s="46" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1592" spans="4:25" x14ac:dyDescent="0.25">
@@ -62371,7 +62391,7 @@
       <c r="O1592" s="27"/>
       <c r="P1592" s="29"/>
       <c r="S1592" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Y1592" s="5" t="s">
         <v>739</v>
@@ -62407,7 +62427,7 @@
     </row>
     <row r="1594" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D1594" s="40" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I1594" s="33" t="s">
         <v>730</v>
@@ -62519,7 +62539,7 @@
       </c>
       <c r="P1597" s="29"/>
       <c r="Y1597" s="46" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1598" spans="4:25" x14ac:dyDescent="0.25">
@@ -62570,7 +62590,7 @@
         <v>117</v>
       </c>
       <c r="N1599" s="23" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O1599" s="27"/>
       <c r="P1599" s="29" t="s">
@@ -62689,10 +62709,10 @@
       <c r="O1603" s="27"/>
       <c r="P1603" s="29"/>
       <c r="S1603" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T1603" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="Y1603" s="5" t="s">
         <v>739</v>
@@ -62811,7 +62831,7 @@
         <v>19</v>
       </c>
       <c r="Y1607" s="46" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1608" spans="9:25" x14ac:dyDescent="0.25">
@@ -63067,7 +63087,7 @@
         <v>19</v>
       </c>
       <c r="Y1616" s="46" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1617" spans="9:25" x14ac:dyDescent="0.25">
@@ -63097,7 +63117,7 @@
       </c>
       <c r="P1617" s="29"/>
       <c r="Y1617" s="46" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1618" spans="9:25" x14ac:dyDescent="0.25">
@@ -63237,7 +63257,7 @@
       <c r="O1622" s="26"/>
       <c r="P1622" s="29"/>
       <c r="U1622" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y1622" s="5" t="s">
         <v>739</v>
@@ -63298,7 +63318,7 @@
       </c>
       <c r="P1624" s="29"/>
       <c r="Y1624" s="46" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1625" spans="9:25" x14ac:dyDescent="0.25">
@@ -63414,7 +63434,7 @@
       </c>
       <c r="P1628" s="29"/>
       <c r="Y1628" s="46" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1629" spans="9:25" x14ac:dyDescent="0.25">
@@ -63444,7 +63464,7 @@
       </c>
       <c r="P1629" s="29"/>
       <c r="Y1629" s="46" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1630" spans="9:25" x14ac:dyDescent="0.25">
@@ -63639,7 +63659,7 @@
       <c r="O1636" s="26"/>
       <c r="P1636" s="29"/>
       <c r="S1636" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Y1636" s="5" t="s">
         <v>739</v>
@@ -63779,7 +63799,7 @@
         <v>159</v>
       </c>
       <c r="N1641" s="31" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="O1641" s="27"/>
       <c r="P1641" s="29"/>
@@ -63870,7 +63890,7 @@
       </c>
       <c r="P1644" s="29"/>
       <c r="Y1644" s="46" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1645" spans="9:25" x14ac:dyDescent="0.25">
@@ -63956,10 +63976,10 @@
         <v>19</v>
       </c>
       <c r="S1647" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="U1647" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Y1647" s="5" t="s">
         <v>1005</v>
@@ -64076,7 +64096,7 @@
       </c>
       <c r="P1651" s="29"/>
       <c r="Y1651" s="46" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1652" spans="9:25" x14ac:dyDescent="0.25">
@@ -64304,7 +64324,7 @@
       <c r="O1659" s="26"/>
       <c r="P1659" s="29"/>
       <c r="U1659" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="Y1659" s="5" t="s">
         <v>739</v>
@@ -64393,7 +64413,7 @@
       </c>
       <c r="P1662" s="29"/>
       <c r="Y1662" s="46" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1663" spans="9:25" x14ac:dyDescent="0.25">
@@ -64423,7 +64443,7 @@
       </c>
       <c r="P1663" s="29"/>
       <c r="Y1663" s="46" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1664" spans="9:25" x14ac:dyDescent="0.25">
@@ -64453,10 +64473,10 @@
       </c>
       <c r="P1664" s="29"/>
       <c r="U1664" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y1664" s="46" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1665" spans="9:25" x14ac:dyDescent="0.25">
@@ -64600,7 +64620,7 @@
       </c>
       <c r="P1669" s="29"/>
       <c r="Y1669" s="46" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1670" spans="9:25" x14ac:dyDescent="0.25">
@@ -64656,7 +64676,7 @@
       <c r="O1671" s="27"/>
       <c r="P1671" s="29"/>
       <c r="U1671" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y1671" s="5" t="s">
         <v>739</v>
@@ -64717,7 +64737,7 @@
       </c>
       <c r="P1673" s="29"/>
       <c r="Y1673" s="46" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1674" spans="9:25" x14ac:dyDescent="0.25">
@@ -64775,7 +64795,7 @@
         <v>19</v>
       </c>
       <c r="Y1675" s="46" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1676" spans="9:25" x14ac:dyDescent="0.25">
@@ -64801,7 +64821,7 @@
       <c r="O1676" s="27"/>
       <c r="P1676" s="29"/>
       <c r="U1676" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y1676" s="5" t="s">
         <v>739</v>
@@ -64890,7 +64910,7 @@
       </c>
       <c r="P1679" s="29"/>
       <c r="Y1679" s="46" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1680" spans="9:25" x14ac:dyDescent="0.25">
@@ -64948,7 +64968,7 @@
       </c>
       <c r="P1681" s="29"/>
       <c r="Y1681" s="46" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1682" spans="9:25" x14ac:dyDescent="0.25">
@@ -65008,7 +65028,7 @@
         <v>19</v>
       </c>
       <c r="Y1683" s="46" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1684" spans="9:25" x14ac:dyDescent="0.25">
@@ -65094,7 +65114,7 @@
       </c>
       <c r="P1686" s="29"/>
       <c r="Y1686" s="46" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1687" spans="9:25" x14ac:dyDescent="0.25">
@@ -65325,7 +65345,7 @@
       </c>
       <c r="P1694" s="29"/>
       <c r="Y1694" s="46" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1695" spans="9:25" x14ac:dyDescent="0.25">
@@ -65355,7 +65375,7 @@
       </c>
       <c r="P1695" s="29"/>
       <c r="Y1695" s="46" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1696" spans="9:25" x14ac:dyDescent="0.25">
@@ -65546,7 +65566,7 @@
         <v>27</v>
       </c>
       <c r="N1702" s="23" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O1702" s="27"/>
       <c r="P1702" s="29" t="s">
@@ -65899,7 +65919,7 @@
       </c>
       <c r="P1714" s="29"/>
       <c r="Y1714" s="46" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1715" spans="9:25" x14ac:dyDescent="0.25">
@@ -65929,7 +65949,7 @@
       </c>
       <c r="P1715" s="29"/>
       <c r="Y1715" s="46" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1716" spans="9:25" x14ac:dyDescent="0.25">
@@ -66036,7 +66056,7 @@
         <v>44</v>
       </c>
       <c r="N1719" s="23" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="O1719" s="26" t="s">
         <v>0</v>
@@ -66045,7 +66065,7 @@
         <v>19</v>
       </c>
       <c r="Y1719" s="46" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1720" spans="9:25" x14ac:dyDescent="0.25">
@@ -66131,7 +66151,7 @@
       </c>
       <c r="P1722" s="29"/>
       <c r="Y1722" s="46" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1723" spans="9:25" x14ac:dyDescent="0.25">
@@ -66389,7 +66409,7 @@
       </c>
       <c r="P1731" s="29"/>
       <c r="Y1731" s="46" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1732" spans="9:25" x14ac:dyDescent="0.25">
@@ -66587,7 +66607,7 @@
       </c>
       <c r="P1738" s="29"/>
       <c r="Y1738" s="46" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1739" spans="9:25" x14ac:dyDescent="0.25">
@@ -66617,7 +66637,7 @@
         <v>19</v>
       </c>
       <c r="Y1739" s="46" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1740" spans="9:25" x14ac:dyDescent="0.25">
@@ -66932,7 +66952,7 @@
       </c>
       <c r="P1750" s="29"/>
       <c r="Y1750" s="46" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1751" spans="9:25" x14ac:dyDescent="0.25">
@@ -67018,7 +67038,7 @@
       </c>
       <c r="P1753" s="29"/>
       <c r="Y1753" s="46" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1754" spans="9:25" x14ac:dyDescent="0.25">
@@ -67106,7 +67126,7 @@
         <v>19</v>
       </c>
       <c r="X1756" s="48" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Y1756" s="46" t="s">
         <v>1016</v>
@@ -67195,7 +67215,7 @@
       </c>
       <c r="P1759" s="29"/>
       <c r="Y1759" s="46" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1760" spans="9:25" x14ac:dyDescent="0.25">
@@ -67479,7 +67499,7 @@
       </c>
       <c r="P1769" s="29"/>
       <c r="Y1769" s="46" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1770" spans="9:25" x14ac:dyDescent="0.25">
@@ -67509,7 +67529,7 @@
       </c>
       <c r="P1770" s="29"/>
       <c r="Y1770" s="46" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1771" spans="9:25" x14ac:dyDescent="0.25">
@@ -67537,10 +67557,10 @@
       <c r="O1771" s="26"/>
       <c r="P1771" s="29"/>
       <c r="S1771" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="T1771" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Y1771" s="5" t="s">
         <v>739</v>
@@ -67601,7 +67621,7 @@
       </c>
       <c r="P1773" s="29"/>
       <c r="Y1773" s="46" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1774" spans="9:25" x14ac:dyDescent="0.25">
@@ -67688,7 +67708,7 @@
       </c>
       <c r="P1776" s="29"/>
       <c r="Y1776" s="46" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1777" spans="9:25" x14ac:dyDescent="0.25">
@@ -67913,6 +67933,12 @@
       </c>
       <c r="O1784" s="27"/>
       <c r="P1784" s="29"/>
+      <c r="S1784" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="T1784" s="1" t="s">
+        <v>1301</v>
+      </c>
       <c r="Y1784" s="5" t="s">
         <v>739</v>
       </c>
@@ -68228,7 +68254,7 @@
       </c>
       <c r="P1795" s="29"/>
       <c r="Y1795" s="46" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1796" spans="9:25" x14ac:dyDescent="0.25">
@@ -68484,7 +68510,7 @@
       </c>
       <c r="P1804" s="29"/>
       <c r="Y1804" s="46" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1805" spans="9:25" x14ac:dyDescent="0.25">
@@ -68857,7 +68883,7 @@
       </c>
       <c r="P1817" s="29"/>
       <c r="Y1817" s="50" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1818" spans="9:25" x14ac:dyDescent="0.25">
@@ -68912,8 +68938,8 @@
       </c>
       <c r="O1819" s="26"/>
       <c r="P1819" s="29"/>
-      <c r="U1819" s="1" t="s">
-        <v>1061</v>
+      <c r="U1819" s="53" t="s">
+        <v>1060</v>
       </c>
       <c r="Y1819" s="5" t="s">
         <v>739</v>
@@ -69030,7 +69056,7 @@
       </c>
       <c r="P1823" s="29"/>
       <c r="Y1823" s="46" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1824" spans="9:25" x14ac:dyDescent="0.25">
@@ -69201,7 +69227,7 @@
       </c>
       <c r="P1829" s="29"/>
       <c r="Y1829" s="46" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1830" spans="9:25" x14ac:dyDescent="0.25">
@@ -69485,7 +69511,7 @@
       </c>
       <c r="P1839" s="29"/>
       <c r="Y1839" s="46" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1840" spans="9:25" x14ac:dyDescent="0.25">
@@ -69515,7 +69541,7 @@
       </c>
       <c r="P1840" s="29"/>
       <c r="Y1840" s="46" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1841" spans="9:25" x14ac:dyDescent="0.25">
@@ -69629,7 +69655,7 @@
       <c r="O1844" s="27"/>
       <c r="P1844" s="29"/>
       <c r="U1844" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y1844" s="5" t="s">
         <v>739</v>
@@ -69888,7 +69914,7 @@
       </c>
       <c r="P1853" s="29"/>
       <c r="U1853" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Y1853" s="23"/>
     </row>
@@ -70085,7 +70111,7 @@
       <c r="O1860" s="26"/>
       <c r="P1860" s="29"/>
       <c r="U1860" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y1860" s="5" t="s">
         <v>739</v>
@@ -70204,7 +70230,7 @@
       </c>
       <c r="P1864" s="29"/>
       <c r="Y1864" s="46" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1865" spans="9:25" x14ac:dyDescent="0.25">
@@ -70911,7 +70937,7 @@
       </c>
       <c r="P1889" s="29"/>
       <c r="U1889" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Y1889" s="23"/>
     </row>
@@ -71108,7 +71134,7 @@
       <c r="O1896" s="26"/>
       <c r="P1896" s="29"/>
       <c r="U1896" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y1896" s="5" t="s">
         <v>739</v>
@@ -71227,7 +71253,7 @@
       </c>
       <c r="P1900" s="29"/>
       <c r="Y1900" s="46" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1901" spans="9:25" x14ac:dyDescent="0.25">
@@ -71483,7 +71509,7 @@
       </c>
       <c r="P1909" s="29"/>
       <c r="Y1909" s="46" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1910" spans="9:25" x14ac:dyDescent="0.25">
@@ -71825,7 +71851,7 @@
       </c>
       <c r="P1921" s="29"/>
       <c r="U1921" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y1921" s="23"/>
     </row>
@@ -71912,7 +71938,7 @@
       </c>
       <c r="P1924" s="29"/>
       <c r="Y1924" s="46" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1925" spans="9:25" x14ac:dyDescent="0.25">
@@ -71997,7 +72023,7 @@
       </c>
       <c r="P1927" s="29"/>
       <c r="Y1927" s="46" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1928" spans="9:25" x14ac:dyDescent="0.25">
@@ -72197,7 +72223,7 @@
       </c>
       <c r="P1934" s="29"/>
       <c r="X1934" s="48" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Y1934" s="46" t="s">
         <v>1039</v>
@@ -72286,7 +72312,7 @@
       </c>
       <c r="P1937" s="29"/>
       <c r="Y1937" s="46" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1938" spans="9:25" x14ac:dyDescent="0.25">
@@ -72316,10 +72342,10 @@
       </c>
       <c r="P1938" s="29"/>
       <c r="X1938" s="48" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Y1938" s="46" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1939" spans="9:25" x14ac:dyDescent="0.25">
@@ -72349,7 +72375,7 @@
       </c>
       <c r="P1939" s="29"/>
       <c r="Y1939" s="46" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1940" spans="9:25" x14ac:dyDescent="0.25">
@@ -72468,7 +72494,7 @@
       </c>
       <c r="P1943" s="29"/>
       <c r="Y1943" s="46" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1944" spans="9:25" x14ac:dyDescent="0.25">
@@ -72554,7 +72580,7 @@
       </c>
       <c r="P1946" s="29"/>
       <c r="X1946" s="48" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Y1946" s="46" t="s">
         <v>1042</v>
@@ -72676,7 +72702,7 @@
       </c>
       <c r="P1950" s="29"/>
       <c r="X1950" s="48" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Y1950" s="46" t="s">
         <v>1043</v>
@@ -72709,7 +72735,7 @@
       </c>
       <c r="P1951" s="29"/>
       <c r="X1951" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Y1951" s="46" t="s">
         <v>1044</v>
@@ -72826,7 +72852,7 @@
       </c>
       <c r="P1955" s="29"/>
       <c r="X1955" s="48" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Y1955" s="46" t="s">
         <v>1045</v>
@@ -72859,7 +72885,7 @@
       </c>
       <c r="P1956" s="29"/>
       <c r="U1956" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Y1956" s="23"/>
     </row>
@@ -72974,7 +73000,7 @@
       </c>
       <c r="P1960" s="29"/>
       <c r="Y1960" s="46" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1961" spans="9:25" x14ac:dyDescent="0.25">
@@ -73061,7 +73087,7 @@
         <v>864</v>
       </c>
       <c r="Y1963" s="46" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1964" spans="9:25" x14ac:dyDescent="0.25">
@@ -73264,7 +73290,7 @@
       </c>
       <c r="P1970" s="29"/>
       <c r="Y1970" s="46" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1971" spans="9:25" x14ac:dyDescent="0.25">
@@ -73319,9 +73345,6 @@
       </c>
       <c r="O1972" s="26"/>
       <c r="P1972" s="29"/>
-      <c r="U1972" s="1" t="s">
-        <v>1060</v>
-      </c>
       <c r="Y1972" s="5" t="s">
         <v>739</v>
       </c>
@@ -73520,10 +73543,10 @@
       <c r="O1979" s="27"/>
       <c r="P1979" s="29"/>
       <c r="S1979" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="U1979" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="Y1979" s="5" t="s">
         <v>739</v>
@@ -73951,7 +73974,7 @@
       <c r="O1994" s="26"/>
       <c r="P1994" s="29"/>
       <c r="S1994" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Y1994" s="5" t="s">
         <v>739</v>
@@ -74325,7 +74348,7 @@
       </c>
       <c r="P2007" s="29"/>
       <c r="Y2007" s="46" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="2008" spans="9:25" x14ac:dyDescent="0.25">
@@ -74376,7 +74399,7 @@
         <v>334</v>
       </c>
       <c r="N2009" s="31" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O2009" s="27"/>
       <c r="P2009" s="29" t="s">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6501" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6507" uniqueCount="1300">
   <si>
     <t>PS</t>
   </si>
@@ -3926,7 +3926,7 @@
     <t xml:space="preserve"> paqriqBU</t>
   </si>
   <si>
-    <t>28.09.2020 COMPLETED</t>
+    <t xml:space="preserve">they are chanting as sitAM </t>
   </si>
 </sst>
 </file>
@@ -4048,7 +4048,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4091,6 +4091,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4119,7 +4125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4284,6 +4290,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4567,10 +4591,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1862" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1995" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="T1875" sqref="T1875:U1875"/>
+      <selection pane="bottomLeft" activeCell="N2008" sqref="N2008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -68379,10 +68403,6 @@
       </c>
       <c r="O1875" s="25"/>
       <c r="P1875" s="28"/>
-      <c r="T1875" s="50" t="s">
-        <v>1299</v>
-      </c>
-      <c r="U1875" s="50"/>
       <c r="W1875" s="5" t="s">
         <v>731</v>
       </c>
@@ -68754,7 +68774,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1889" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1889" s="32" t="s">
         <v>728</v>
       </c>
@@ -68785,7 +68805,7 @@
       </c>
       <c r="W1889" s="22"/>
     </row>
-    <row r="1890" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1890" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1890" s="32" t="s">
         <v>728</v>
       </c>
@@ -68813,7 +68833,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1891" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1891" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1891" s="32" t="s">
         <v>728</v>
       </c>
@@ -68841,7 +68861,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1892" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1892" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1892" s="32" t="s">
         <v>728</v>
       </c>
@@ -68869,7 +68889,7 @@
       <c r="P1892" s="28"/>
       <c r="W1892" s="22"/>
     </row>
-    <row r="1893" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1893" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1893" s="32" t="s">
         <v>728</v>
       </c>
@@ -68897,7 +68917,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1894" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1894" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1894" s="32" t="s">
         <v>728</v>
       </c>
@@ -68925,7 +68945,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1895" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1895" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1895" s="32" t="s">
         <v>728</v>
       </c>
@@ -68953,7 +68973,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1896" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1896" s="32" t="s">
         <v>728</v>
       </c>
@@ -68977,14 +68997,14 @@
       </c>
       <c r="O1896" s="25"/>
       <c r="P1896" s="28"/>
-      <c r="U1896" s="1" t="s">
+      <c r="U1896" s="61" t="s">
         <v>1047</v>
       </c>
       <c r="W1896" s="5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="1897" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1897" s="32" t="s">
         <v>728</v>
       </c>
@@ -69014,7 +69034,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="1898" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1898" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1898" s="32" t="s">
         <v>728</v>
       </c>
@@ -69042,7 +69062,10 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1899" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1899" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1899" s="2" t="s">
+        <v>1297</v>
+      </c>
       <c r="I1899" s="32" t="s">
         <v>728</v>
       </c>
@@ -69070,7 +69093,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1900" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1900" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1900" s="32" t="s">
         <v>728</v>
       </c>
@@ -69100,7 +69123,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="1901" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1901" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1901" s="32" t="s">
         <v>728</v>
       </c>
@@ -69128,7 +69151,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1902" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1902" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1902" s="32" t="s">
         <v>728</v>
       </c>
@@ -69156,7 +69179,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1903" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1903" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1903" s="32" t="s">
         <v>728</v>
       </c>
@@ -69184,7 +69207,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1904" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1904" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1904" s="32" t="s">
         <v>728</v>
       </c>
@@ -69212,7 +69235,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1905" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1905" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1905" s="32" t="s">
         <v>728</v>
       </c>
@@ -69242,7 +69265,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1906" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1906" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1906" s="32" t="s">
         <v>728</v>
       </c>
@@ -69270,7 +69293,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1907" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1907" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1907" s="32" t="s">
         <v>728</v>
       </c>
@@ -69298,7 +69321,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1908" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1908" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1908" s="32" t="s">
         <v>728</v>
       </c>
@@ -69326,7 +69349,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1909" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1909" s="32" t="s">
         <v>728</v>
       </c>
@@ -69356,7 +69379,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="1910" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1910" s="32" t="s">
         <v>728</v>
       </c>
@@ -69384,7 +69407,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1911" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1911" s="32" t="s">
         <v>728</v>
       </c>
@@ -69414,7 +69437,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="1912" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1912" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1912" s="32" t="s">
         <v>728</v>
       </c>
@@ -69442,7 +69465,10 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1913" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1913" s="2" t="s">
+        <v>1297</v>
+      </c>
       <c r="I1913" s="32" t="s">
         <v>728</v>
       </c>
@@ -69470,7 +69496,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1914" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1914" s="32" t="s">
         <v>728</v>
       </c>
@@ -69498,7 +69524,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1915" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1915" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1915" s="32" t="s">
         <v>728</v>
       </c>
@@ -69526,7 +69552,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1916" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1916" s="32" t="s">
         <v>728</v>
       </c>
@@ -69554,7 +69580,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1917" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1917" s="32" t="s">
         <v>728</v>
       </c>
@@ -69582,7 +69608,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1918" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1918" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1918" s="32" t="s">
         <v>728</v>
       </c>
@@ -69610,7 +69636,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1919" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1919" s="32" t="s">
         <v>728</v>
       </c>
@@ -69638,7 +69664,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="1920" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="1920" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1920" s="32" t="s">
         <v>728</v>
       </c>
@@ -70910,7 +70936,9 @@
       <c r="N1963" s="22" t="s">
         <v>816</v>
       </c>
-      <c r="O1963" s="25"/>
+      <c r="O1963" s="62" t="s">
+        <v>17</v>
+      </c>
       <c r="P1963" s="28"/>
       <c r="W1963" s="44" t="s">
         <v>1261</v>
@@ -71194,11 +71222,14 @@
         <f t="shared" si="246"/>
         <v>298</v>
       </c>
-      <c r="N1973" s="22" t="s">
+      <c r="N1973" s="63" t="s">
         <v>668</v>
       </c>
       <c r="O1973" s="26"/>
       <c r="P1973" s="28"/>
+      <c r="S1973" s="64" t="s">
+        <v>1052</v>
+      </c>
       <c r="W1973" s="5" t="s">
         <v>731</v>
       </c>
@@ -71307,11 +71338,14 @@
         <f t="shared" si="246"/>
         <v>302</v>
       </c>
-      <c r="N1977" s="16" t="s">
+      <c r="N1977" s="65" t="s">
         <v>670</v>
       </c>
       <c r="O1977" s="26"/>
       <c r="P1977" s="28"/>
+      <c r="S1977" s="64" t="s">
+        <v>1052</v>
+      </c>
       <c r="W1977" s="5" t="s">
         <v>731</v>
       </c>
@@ -71805,6 +71839,10 @@
       <c r="T1994" s="1" t="s">
         <v>1284</v>
       </c>
+      <c r="U1994" s="61" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V1994" s="61"/>
       <c r="W1994" s="5" t="s">
         <v>731</v>
       </c>
@@ -72001,11 +72039,16 @@
         <f t="shared" si="248"/>
         <v>326</v>
       </c>
-      <c r="N2001" s="22" t="s">
+      <c r="N2001" s="63" t="s">
         <v>688</v>
       </c>
-      <c r="O2001" s="26"/>
-      <c r="P2001" s="28"/>
+      <c r="O2001" s="62"/>
+      <c r="P2001" s="66"/>
+      <c r="Q2001" s="64"/>
+      <c r="R2001" s="64"/>
+      <c r="S2001" s="64" t="s">
+        <v>1052</v>
+      </c>
       <c r="W2001" s="5" t="s">
         <v>731</v>
       </c>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TS 4.7" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.7'!$A$1:$XES$2010</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.7'!$A$1:$V$2009</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8207" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="1343">
   <si>
     <t>PS</t>
   </si>
@@ -4697,10 +4697,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomLeft" activeCell="V8" sqref="V8:V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5358,9 +5358,7 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="5" t="s">
-        <v>731</v>
-      </c>
+      <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -5399,9 +5397,7 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="5" t="s">
-        <v>731</v>
-      </c>
+      <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -5440,9 +5436,7 @@
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="5" t="s">
-        <v>731</v>
-      </c>
+      <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -5524,9 +5518,7 @@
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-      <c r="V8" s="5" t="s">
-        <v>731</v>
-      </c>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -5565,9 +5557,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="5" t="s">
-        <v>731</v>
-      </c>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9182C13-4094-4BCD-B1DE-F490A02A7C2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB08852-BF4A-4A44-A724-411AA72148DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA58C65-AB69-4333-85C3-10E7BC9164CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D2C4F3-A797-4FD1-9A08-E693B2B69EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4719,9 +4719,9 @@
   <dimension ref="A1:W2010"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A722" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1080" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="V1082" sqref="V1082"/>
+      <selection pane="bottomLeft" activeCell="T1086" sqref="T1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D2C4F3-A797-4FD1-9A08-E693B2B69EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04929024-761B-438D-B478-FC6FA63794A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4718,10 +4718,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1080" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1997" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="T1086" sqref="T1086"/>
+      <selection pane="bottomLeft" activeCell="V840" sqref="V840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04929024-761B-438D-B478-FC6FA63794A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D49B7-E687-4EB0-85F4-3AFAE9EE1E72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4718,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1997" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1679" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="V840" sqref="V840"/>
     </sheetView>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D49B7-E687-4EB0-85F4-3AFAE9EE1E72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6550D95-0203-4561-9B7B-4610E08E392E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4718,10 +4718,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1679" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="V840" sqref="V840"/>
+      <selection pane="bottomLeft" activeCell="V687" sqref="V687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A69C0C1-1AF9-4462-ACF7-F2B5DF088C6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E8DAFD-F2BB-4BA0-A61E-DE4BC3EA06AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4719,9 +4719,9 @@
   <dimension ref="A1:W2010"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1870" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1987" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="T1647" sqref="T1647"/>
+      <selection pane="bottomLeft" activeCell="S2001" sqref="S2001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E8DAFD-F2BB-4BA0-A61E-DE4BC3EA06AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04FA37-3D1A-4B28-BA01-9ADCF084D2A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TS 4.7" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.7'!$A$1:$V$2009</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.7'!$S$2001:$S$2001</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="1343">
   <si>
     <t>PS</t>
   </si>
@@ -4054,6 +4054,9 @@
   </si>
   <si>
     <t>aqtiqgrAqhyA# itya#ti - grAqhyA$H</t>
+  </si>
+  <si>
+    <t>P[o]+S[r]+N[r]</t>
   </si>
 </sst>
 </file>
@@ -4718,10 +4721,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1987" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A779" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="S2001" sqref="S2001"/>
+      <selection pane="bottomLeft" activeCell="V786" sqref="V786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -46837,8 +46840,8 @@
       <c r="S1210" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="T1210" s="8" t="s">
-        <v>1100</v>
+      <c r="T1210" s="64" t="s">
+        <v>1342</v>
       </c>
       <c r="U1210" s="8" t="s">
         <v>900</v>
@@ -75923,6 +75926,7 @@
       <c r="C2010" s="49"/>
     </row>
   </sheetData>
+  <autoFilter ref="S2001" xr:uid="{31158C2A-E438-44C0-AAF3-A0E4CA00E200}"/>
   <hyperlinks>
     <hyperlink ref="N1223" r:id="rId1" display="a@Bi" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="N1233" r:id="rId2" display="a@Bi" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 4.7 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD7EE9-18E6-4709-AF6E-6F1343C9B904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7C3648-2345-4445-B63A-D9784B217B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4725,9 +4725,9 @@
   <dimension ref="A1:W2010"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1200" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="N1212" sqref="N1212"/>
+      <selection pane="bottomLeft" activeCell="N1205" sqref="N1205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
